--- a/application/static/excel_data/data_crawling -- #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1021">
   <si>
     <t>id</t>
   </si>
@@ -3811,6 +3811,353 @@
   </si>
   <si>
     <t>Tue Dec 08 03:43:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri 5 Perkara; Hidup Sebelum Mati - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ayah Satria teman sekelas Risa meninggal dunia. https://t.co/KmF82RpzD5</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 13:45:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>DI LUTIM, TOTAL PASIEN SEMBUH SEBANYAK 1.767 DARI 1.852 KASUS
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/dmJs6cOIQe
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/WMeTQAa5aS</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:48:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 12 Desember 2020.
+7 sembuh dan 9 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/SjdBHBuPFq</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:46:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>SBM:Jangan Buang Sampah Sembarangan - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS: Jangan Buang Sampah Sembarangan!
+Aduh Rio punya https://t.co/jBn5lghNA5</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 11:13:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>WABUP IRWAN PIMPIN UPACARA PELEPASAN JENAZAH KETUA DPRD LUWU TIMUR
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/lQYMFSTJuP
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #pakemasker #tetapwaspada #coronabisasembuh https://t.co/OXvIcRTiWi</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 09:48:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>SBM:Jangan Mengambil Tanpa Izin - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Huh ada yang mengambil mangga Sakhi tanpa izin. https://t.co/s0egyBkGoh</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:43:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>SBM:Jangan Rusak Tanaman - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berolahraga di taman ada yang membuat sedih Sakhi. Ternyata https://t.co/CVymnzWDrm</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 06:13:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kita kasih waktu sampai malam tahun baru, deh~
+Cek Instagram @kelaskitadotcom sekarang juga!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #ikancupang #giveaway #parangkencana https://t.co/Cxu1EhOwe9</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 06:07:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>SBM:Jangan Pipis Sembarangan - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:
+PENERBIT:GEMA https://t.co/39zjhCAniw</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:43:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban UAS / PAS Matematika, Kelas 2, Semester Ganjil, Pilihan Ganda &amp;amp; Esai, Berat Buah Jeruk
+#UAS #PAS #PenilaianAkhirSemester #UlanganAkhirSemester #Matematika #belajardirumah #belajardarirumah 
+ https://t.co/i8qHHQEt8B via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 02:07:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>📚Promo Buku Perguruan Tinggi Erlangga🎓 
+#PromoBuku #bukuibuku #BukuKuliah #JualBuku #BeliBuku #TokoBuku #BukuMurah #DiskonBuku #BukuDiskon #KuliahOnline #Mahasiswa  #belajardirumah #ingatpesanibu #pakaimasker #CuciTanganPakaiSabun #JagaJarak 
+⏩ https://t.co/eIkeMmFT2n ✔ https://t.co/9CrZWFEhQm</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 02:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 set seri Mengenal Allah - Diskon 20% menjadi Rp.100000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:
+PENERBIT:GEMA https://t.co/WkSdcJrgue</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 01:13:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Amazing Iman - Diskon 20% menjadi Rp.77600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Semakin baik keimanan seseorang semakin Allah mencintainya. Tahukah https://t.co/CixtPYRlHd</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 22:44:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>KUNCI JAWABAN Tema 3 Kelas 4 Halaman 126 127 128-130, Ciri-ciri Pertanyaan yang Baik untuk Wawancara
+#BukuTematik #BelajardiRumah #belajardarirumah 
+ https://t.co/gNU3gprcFa via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 21:44:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Amazing Islam - Diskon 20% menjadi Rp.77600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Islam ibarat sebuah bangunan yang memiliki 5 pilar. Bila kukuh kelima pilar https://t.co/prkrGcVg3B</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 20:15:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Amazing - Diskon 20% menjadi Rp.310400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:
+PENERBIT:GEMA INSANI
+KATEGORI:Buku
+SEGMENTASI:Anak
+TEMA:Aqidah https://t.co/geu5gTyvHS</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 17:42:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Pancaindra; Alhamdulillah, Aku Bisa Mencium Bau - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Gema sangat suka teropong pemberian https://t.co/oUtMrxBB7R</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 15:13:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Pancaindra; Alhamdulillah, Aku Bisa Menyentuh - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Gema dan Gina berlibur ke rumah kakek. https://t.co/ArGvb4zD69</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 12:45:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Pancaindra; Alhamdulillah, Aku Bisa Mendengar - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Duh kenapa suara Gina jadi terdengar https://t.co/KGGo7uy2Cp</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 10:17:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>JUMLAH PASIEN SEMBUH BERTAMBAH LAGI 18 ORANG DAN 5 KASUS BARU
+INFORMASI LENGKAPNYA DI 👉 https://t.co/vHGp1kgKLV
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/q9iuNOaJd5</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 10:05:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Siapa yang suka malas belajar di sini? Yuk, belajar di Kelas Pintar aja!
+#belajardirumah #pjjonlineclass #bimbelonline #infosma #kelaspintarindonesia https://t.co/CwGVzKOPLB</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 10:01:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 11 Desember 2020.
+18 sembuh dan 5 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qyeKy
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/rnhe9geZvh</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 10:00:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ini hari, Kelaskita mau ngasih tau siapa-siapa aja 'Pang Jago yang berhasil mendapatkan hadiah keren dari @kelaskitadotcom.
+Cek Instagram @kelaskitadotcom sekarang!
+#kelaskita #carabarubelajarseru #HaloPangJago #belajardirumah #belajaronline #dirumahaja #ikancupang #giveaway https://t.co/hcHpLGsXrS</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:58:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Pancaindra; Alhamdulillah, Aku Bisa Merasa - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Gema dan Gina datang ke acara syukuran https://t.co/SFjgAMSMIc</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:53:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Pancaindra; Alhamdulillah, Aku Bisa Melihat - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Gema sangat suka teropong pemberian https://t.co/rPWKK9E2VE</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:13:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>menjadi belajar dari rumah dengan media pembelajaran daring untuk mencegah penularan virus korona Covid-19. Aamiin.
+#JumatBerkah #BelajardiRumah</t>
+  </si>
+  <si>
+    <t>PrasetyoEdi_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:03:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Alhamdulillah di hari jumat yang berkah ini, rekan-rekan Sohib Prass kembali memberikan bantuan labtop kepada anak-anak yang membutuhkan sebagai alat dukung penerapan pembelajaran Jarak Jauh dengan Belajar di Rumah.
+#JumatBerkah #BelajardiRumah https://t.co/MdORkYpLLh</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:03:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban UAS / PAS Matematika, Kelas 2, Semester Ganjil, Pilihan Ganda  &amp;amp; Esai, Berat Buah Jeruk
+#UAS #PAS #PenilaianAkhirSemester #UlanganAkhirSemester #Matematika #belajardirumah #belajardarirumah 
+https://t.co/i8qHHQW409 via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 03:33:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Cerita Si Siput - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum. Teman-Teman
+Namaku Siput. Aku termasuk hewan https://t.co/OvUuRlrCMK</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 02:43:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban UAS / PAS IPA Kelas 7 SMP, Semester Ganjil, Pilihan Ganda, Satuan Besaran yang Dipakai
+#UlanganAkhirSemester #PenilaianAkhirSemester #IPA #belajardirumah #belajardarirumah 
+ https://t.co/Q8Qw67QfI1 via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 02:07:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>📚Promo Buku Perguruan Tinggi Erlangga🎓 
+#PromoBuku #bukuibuku #BukuKuliah #JualBuku #BeliBuku #TokoBuku #BukuMurah #DiskonBuku #BukuDiskon #BacaBuku #KuliahOnline #BelajarDiRumah #ingatpesanibu  
+⏩ https://t.co/eIkeMmXuqX ✔ https://t.co/ONlyEasEcE</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 02:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Cerita si Kelinci - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman-Teman.
+Aku hewan mamalia kecil yang berbulu halus https://t.co/DHTD1GGCHo</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 00:14:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Kata Ajaib; Aku Mengucap Maaf - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Setelah bermain basket bersama Gema Gina ingin https://t.co/XTIUW8Yoeo</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 21:42:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Kata Ajaib; Aku Mengucap Tolong - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+Gema dan Gina sedang piknik bersama sepupu https://t.co/npi6RKyT5W</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 19:12:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Senangnya Berbagi - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Gema ragu-ragu akankah dia berbagi oleh-oleh https://t.co/UWTbHmTVQP</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 16:56:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bahagianya Saling Menyayangi - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Bahagianya kalau kakak dan adik https://t.co/o3b6kYPJz9</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:12:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>PASIEN SEMBUH BERTAMBAH 8 ORANG DAN 12 KASUS BARU HARI INI
+INFORMASI LENGKAPNYA BACA DI👉 https://t.co/RPepbkLw79
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/zsq34P6gHb</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:54:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 10 Desember 2020.
+8 sembuh dan 12 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/So4qEfFIoG</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:51:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Malam ini belajar dikit yuk tentang fungsi eksponensial! Kamu bisa belajar lebih lengkap di Kelas Pintar loh!
+#rumusmatematika #infosma #belajardirumah #pjjonlineclass #kelaspintarindonesia https://t.co/MgxP4Otpb2</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:01:58 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -4173,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D438"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H434" sqref="H434"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G496" sqref="G496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10313,6 +10660,748 @@
         <v>789</v>
       </c>
     </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1.3377553502215171E+18</v>
+      </c>
+      <c r="B439" t="s">
+        <v>942</v>
+      </c>
+      <c r="C439" t="s">
+        <v>625</v>
+      </c>
+      <c r="D439" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1.337741121733108E+18</v>
+      </c>
+      <c r="B440" t="s">
+        <v>944</v>
+      </c>
+      <c r="C440" t="s">
+        <v>21</v>
+      </c>
+      <c r="D440" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1.337740548447191E+18</v>
+      </c>
+      <c r="B441" t="s">
+        <v>946</v>
+      </c>
+      <c r="C441" t="s">
+        <v>21</v>
+      </c>
+      <c r="D441" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1.337717139600364E+18</v>
+      </c>
+      <c r="B442" t="s">
+        <v>948</v>
+      </c>
+      <c r="C442" t="s">
+        <v>625</v>
+      </c>
+      <c r="D442" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1.337695705226379E+18</v>
+      </c>
+      <c r="B443" t="s">
+        <v>950</v>
+      </c>
+      <c r="C443" t="s">
+        <v>21</v>
+      </c>
+      <c r="D443" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1.3376795006502669E+18</v>
+      </c>
+      <c r="B444" t="s">
+        <v>952</v>
+      </c>
+      <c r="C444" t="s">
+        <v>625</v>
+      </c>
+      <c r="D444" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>1.3376418081682719E+18</v>
+      </c>
+      <c r="B445" t="s">
+        <v>954</v>
+      </c>
+      <c r="C445" t="s">
+        <v>625</v>
+      </c>
+      <c r="D445" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>1.3376402174449249E+18</v>
+      </c>
+      <c r="B446" t="s">
+        <v>956</v>
+      </c>
+      <c r="C446" t="s">
+        <v>45</v>
+      </c>
+      <c r="D446" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1.33760390459954E+18</v>
+      </c>
+      <c r="B447" t="s">
+        <v>958</v>
+      </c>
+      <c r="C447" t="s">
+        <v>625</v>
+      </c>
+      <c r="D447" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>1.3375796751834399E+18</v>
+      </c>
+      <c r="B448" t="s">
+        <v>960</v>
+      </c>
+      <c r="C448" t="s">
+        <v>53</v>
+      </c>
+      <c r="D448" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1.3375779163144479E+18</v>
+      </c>
+      <c r="B449" t="s">
+        <v>962</v>
+      </c>
+      <c r="C449" t="s">
+        <v>18</v>
+      </c>
+      <c r="D449" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>1.3375662103014441E+18</v>
+      </c>
+      <c r="B450" t="s">
+        <v>964</v>
+      </c>
+      <c r="C450" t="s">
+        <v>625</v>
+      </c>
+      <c r="D450" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>1.337528607321641E+18</v>
+      </c>
+      <c r="B451" t="s">
+        <v>966</v>
+      </c>
+      <c r="C451" t="s">
+        <v>625</v>
+      </c>
+      <c r="D451" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1.337513694964503E+18</v>
+      </c>
+      <c r="B452" t="s">
+        <v>968</v>
+      </c>
+      <c r="C452" t="s">
+        <v>53</v>
+      </c>
+      <c r="D452" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>1.3374912145436879E+18</v>
+      </c>
+      <c r="B453" t="s">
+        <v>970</v>
+      </c>
+      <c r="C453" t="s">
+        <v>625</v>
+      </c>
+      <c r="D453" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>1.3374527742675761E+18</v>
+      </c>
+      <c r="B454" t="s">
+        <v>972</v>
+      </c>
+      <c r="C454" t="s">
+        <v>625</v>
+      </c>
+      <c r="D454" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>1.3374152325247301E+18</v>
+      </c>
+      <c r="B455" t="s">
+        <v>974</v>
+      </c>
+      <c r="C455" t="s">
+        <v>625</v>
+      </c>
+      <c r="D455" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>1.337377980159468E+18</v>
+      </c>
+      <c r="B456" t="s">
+        <v>976</v>
+      </c>
+      <c r="C456" t="s">
+        <v>625</v>
+      </c>
+      <c r="D456" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>1.3373407186044349E+18</v>
+      </c>
+      <c r="B457" t="s">
+        <v>978</v>
+      </c>
+      <c r="C457" t="s">
+        <v>625</v>
+      </c>
+      <c r="D457" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>1.3373375859374861E+18</v>
+      </c>
+      <c r="B458" t="s">
+        <v>980</v>
+      </c>
+      <c r="C458" t="s">
+        <v>21</v>
+      </c>
+      <c r="D458" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1.3373367633465139E+18</v>
+      </c>
+      <c r="B459" t="s">
+        <v>982</v>
+      </c>
+      <c r="C459" t="s">
+        <v>72</v>
+      </c>
+      <c r="D459" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>1.3373365236252631E+18</v>
+      </c>
+      <c r="B460" t="s">
+        <v>984</v>
+      </c>
+      <c r="C460" t="s">
+        <v>21</v>
+      </c>
+      <c r="D460" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>1.337335960791446E+18</v>
+      </c>
+      <c r="B461" t="s">
+        <v>986</v>
+      </c>
+      <c r="C461" t="s">
+        <v>45</v>
+      </c>
+      <c r="D461" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>1.337304431704994E+18</v>
+      </c>
+      <c r="B462" t="s">
+        <v>988</v>
+      </c>
+      <c r="C462" t="s">
+        <v>625</v>
+      </c>
+      <c r="D462" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>1.337264217691308E+18</v>
+      </c>
+      <c r="B463" t="s">
+        <v>990</v>
+      </c>
+      <c r="C463" t="s">
+        <v>625</v>
+      </c>
+      <c r="D463" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>1.3372466635266051E+18</v>
+      </c>
+      <c r="B464" t="s">
+        <v>992</v>
+      </c>
+      <c r="C464" t="s">
+        <v>993</v>
+      </c>
+      <c r="D464" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>1.3372466477518269E+18</v>
+      </c>
+      <c r="B465" t="s">
+        <v>995</v>
+      </c>
+      <c r="C465" t="s">
+        <v>993</v>
+      </c>
+      <c r="D465" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>1.3372389841628239E+18</v>
+      </c>
+      <c r="B466" t="s">
+        <v>997</v>
+      </c>
+      <c r="C466" t="s">
+        <v>53</v>
+      </c>
+      <c r="D466" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>1.3372264758465249E+18</v>
+      </c>
+      <c r="B467" t="s">
+        <v>999</v>
+      </c>
+      <c r="C467" t="s">
+        <v>625</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>1.337217287330271E+18</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C468" t="s">
+        <v>53</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>1.3372155278157051E+18</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C469" t="s">
+        <v>18</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1.337188935324201E+18</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C470" t="s">
+        <v>625</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>1.3371507181264079E+18</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C471" t="s">
+        <v>625</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>1.337112856496468E+18</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C472" t="s">
+        <v>625</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>1.3370788015582039E+18</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C473" t="s">
+        <v>625</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>1.3370374287380731E+18</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C474" t="s">
+        <v>625</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>1.3370330263210109E+18</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C475" t="s">
+        <v>21</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>1.3370321411593669E+18</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C476" t="s">
+        <v>21</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>1.3370197300251809E+18</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C477" t="s">
+        <v>72</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>1.3369997907274509E+18</v>
+      </c>
+      <c r="B478" t="s">
+        <v>860</v>
+      </c>
+      <c r="C478" t="s">
+        <v>625</v>
+      </c>
+      <c r="D478" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1.336997887771701E+18</v>
+      </c>
+      <c r="B479" t="s">
+        <v>862</v>
+      </c>
+      <c r="C479" t="s">
+        <v>863</v>
+      </c>
+      <c r="D479" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>1.3369882051916349E+18</v>
+      </c>
+      <c r="B480" t="s">
+        <v>865</v>
+      </c>
+      <c r="C480" t="s">
+        <v>21</v>
+      </c>
+      <c r="D480" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>1.336954970785022E+18</v>
+      </c>
+      <c r="B481" t="s">
+        <v>867</v>
+      </c>
+      <c r="C481" t="s">
+        <v>769</v>
+      </c>
+      <c r="D481" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>1.3369547039014131E+18</v>
+      </c>
+      <c r="B482" t="s">
+        <v>869</v>
+      </c>
+      <c r="C482" t="s">
+        <v>769</v>
+      </c>
+      <c r="D482" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>1.336952908382839E+18</v>
+      </c>
+      <c r="B483" t="s">
+        <v>871</v>
+      </c>
+      <c r="C483" t="s">
+        <v>625</v>
+      </c>
+      <c r="D483" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>1.336950475325751E+18</v>
+      </c>
+      <c r="B484" t="s">
+        <v>873</v>
+      </c>
+      <c r="C484" t="s">
+        <v>769</v>
+      </c>
+      <c r="D484" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>1.336950136744727E+18</v>
+      </c>
+      <c r="B485" t="s">
+        <v>875</v>
+      </c>
+      <c r="C485" t="s">
+        <v>769</v>
+      </c>
+      <c r="D485" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>1.3369344098663629E+18</v>
+      </c>
+      <c r="B486" t="s">
+        <v>877</v>
+      </c>
+      <c r="C486" t="s">
+        <v>21</v>
+      </c>
+      <c r="D486" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>1.336907670482113E+18</v>
+      </c>
+      <c r="B487" t="s">
+        <v>879</v>
+      </c>
+      <c r="C487" t="s">
+        <v>625</v>
+      </c>
+      <c r="D487" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>1.3368866043092211E+18</v>
+      </c>
+      <c r="B488" t="s">
+        <v>881</v>
+      </c>
+      <c r="C488" t="s">
+        <v>882</v>
+      </c>
+      <c r="D488" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>1.3368671804329569E+18</v>
+      </c>
+      <c r="B489" t="s">
+        <v>884</v>
+      </c>
+      <c r="C489" t="s">
+        <v>53</v>
+      </c>
+      <c r="D489" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>1.336863189191913E+18</v>
+      </c>
+      <c r="B490" t="s">
+        <v>886</v>
+      </c>
+      <c r="C490" t="s">
+        <v>625</v>
+      </c>
+      <c r="D490" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>1.336854899426914E+18</v>
+      </c>
+      <c r="B491" t="s">
+        <v>888</v>
+      </c>
+      <c r="C491" t="s">
+        <v>53</v>
+      </c>
+      <c r="D491" t="s">
+        <v>889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
